--- a/JumpNRun/doku/planung-stickman.xlsx
+++ b/JumpNRun/doku/planung-stickman.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Barbara Bachmann\Documents\FHNW\Projekte\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Barbara Bachmann\Documents\GitHub\ApprenticeGame\JumpNRun\doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>To Do</t>
   </si>
@@ -35,64 +35,49 @@
     <t xml:space="preserve">Datum bis </t>
   </si>
   <si>
-    <t>Nur die einzelnen Plattformen bewegen</t>
-  </si>
-  <si>
-    <t>die ersten zwei Levels erstellen</t>
-  </si>
-  <si>
-    <t>Sound hinzufügen</t>
-  </si>
-  <si>
-    <t>definiert schneller werden vom Stickman(Plattform)</t>
-  </si>
-  <si>
-    <t>verschiebung nur von den Plattformen und dem Hintergrund</t>
-  </si>
-  <si>
-    <t>Stickman bleibt am gleichen Ort</t>
-  </si>
-  <si>
-    <t>Verknüpfen der Levels</t>
-  </si>
-  <si>
-    <t>noch mehr Levels erstellen</t>
-  </si>
-  <si>
-    <t>Jump Debuggen</t>
-  </si>
-  <si>
-    <t>Start Button in einem Feld und Esc zum Stoppen</t>
-  </si>
-  <si>
-    <t>Counter mit automatischer Spiel start</t>
-  </si>
-  <si>
-    <t>Benutzer bearbeiten</t>
-  </si>
-  <si>
-    <t>Level Menü</t>
-  </si>
-  <si>
     <t>Menü</t>
   </si>
   <si>
     <t>Wichtigkeit</t>
   </si>
   <si>
-    <t>Designe</t>
-  </si>
-  <si>
-    <t>Benutzer erstellen und speichern(download .txt)</t>
-  </si>
-  <si>
-    <t>Anmeldung(upload)</t>
+    <t>ansteigendes Spieltempo</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Plattformen bewegen</t>
+  </si>
+  <si>
+    <t>Spielmechanik(Stickman -&gt; Jump)</t>
+  </si>
+  <si>
+    <t>Benutzer erstellen, speichern, anmelden</t>
+  </si>
+  <si>
+    <t>Esc (Pause)</t>
+  </si>
+  <si>
+    <t>Levels erstellen</t>
+  </si>
+  <si>
+    <t>Levels starten und auswählen</t>
+  </si>
+  <si>
+    <t>Startcounter</t>
+  </si>
+  <si>
+    <t>Schwierigkeiten Einbauen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-807]d\.\ mmm\ yy;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -124,7 +109,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -143,11 +128,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D19" totalsRowShown="0">
-  <autoFilter ref="A1:D19"/>
-  <sortState ref="A2:D20">
-    <sortCondition ref="D1:D20"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D8" totalsRowShown="0">
+  <autoFilter ref="A1:D8"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Datum bis "/>
     <tableColumn id="2" name="To Do"/>
@@ -421,17 +403,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="54.7109375" customWidth="1"/>
-    <col min="3" max="5" width="11" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" customWidth="1"/>
+    <col min="3" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -445,15 +427,15 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>41859</v>
+        <v>41873</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -461,10 +443,10 @@
     </row>
     <row r="3" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>41866</v>
+        <v>41887</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -472,178 +454,87 @@
     </row>
     <row r="4" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41866</v>
+        <v>41894</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41869</v>
+        <v>41915</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41873</v>
+        <v>41922</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41879</v>
+        <v>41936</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41887</v>
+        <v>41943</v>
       </c>
       <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
         <v>7</v>
       </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>41887</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9">
-        <v>6</v>
-      </c>
     </row>
     <row r="10" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>41894</v>
+      <c r="A10" t="s">
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>41901</v>
-      </c>
       <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>41908</v>
-      </c>
       <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>41912</v>
-      </c>
       <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>41918</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>41920</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>41921</v>
-      </c>
-      <c r="B16" t="s">
         <v>13</v>
-      </c>
-      <c r="D16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>41929</v>
-      </c>
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>41936</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>41943</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>